--- a/Templates/Json_Excel_Template3.0.xlsx
+++ b/Templates/Json_Excel_Template3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FloraValentina/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/Arbeit/Onesome/Coding/Jsons/Json Builder/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74054F21-B250-6E40-BE7A-01E09010A1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0D6198-9C0D-9942-86F3-676F6C43B66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="17640" activeTab="1" xr2:uid="{10C9D494-FF19-E541-B5E6-AA7C08DB1016}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="17640" xr2:uid="{10C9D494-FF19-E541-B5E6-AA7C08DB1016}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -868,1080 +868,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
   </cellStyles>
-  <dxfs count="224">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <fill>
         <patternFill>
@@ -2452,10 +1384,10 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tabellenformat 1" pivot="0" count="1" xr9:uid="{DC516747-FE49-2B43-ABAA-5D49823D416B}">
-      <tableStyleElement type="firstColumnStripe" dxfId="223"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="71"/>
     </tableStyle>
     <tableStyle name="Tabellenformat 2" pivot="0" count="1" xr9:uid="{82F3207E-491C-C845-8AB5-3606B1EA86FB}">
-      <tableStyleElement type="secondColumnStripe" dxfId="222"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="70"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2768,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA3210E-E7A6-2043-8156-8087E806CB00}">
   <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2933,11 +1865,7 @@
         <v>100</v>
       </c>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -3012,11 +1940,7 @@
       <c r="X3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" spans="1:30" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
@@ -3052,13 +1976,13 @@
       <c r="K4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="13" t="s">
         <v>119</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="13" t="s">
         <v>70</v>
       </c>
       <c r="O4" s="15" t="s">
@@ -3088,15 +2012,11 @@
       <c r="W4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="X4" s="13" t="s">
         <v>121</v>
       </c>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
     </row>
     <row r="5" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -3129,7 +2049,6 @@
       <c r="J5" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="24"/>
       <c r="O5" s="15" t="s">
         <v>9</v>
       </c>
@@ -3143,16 +2062,7 @@
         <v>112</v>
       </c>
       <c r="S5" s="10"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:30" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -3180,20 +2090,9 @@
       <c r="J6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="24"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:30" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -3221,21 +2120,10 @@
       <c r="J7" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="N7" s="24"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
     </row>
     <row r="8" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
@@ -3251,22 +2139,11 @@
         <v>90</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="N8" s="24"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
     </row>
     <row r="9" spans="1:30" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -3285,23 +2162,6 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
     </row>
     <row r="10" spans="1:30" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -3347,656 +2207,240 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="containsText" dxfId="69" priority="244" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",A12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="243" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",A12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="242" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",A12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="241" operator="containsText" text="Zeit max">
+      <formula>NOT(ISERROR(SEARCH("Zeit max",A12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C10 AB5">
-    <cfRule type="containsText" dxfId="221" priority="277" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="65" priority="280" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="279" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="278" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="277" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="278" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="279" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="280" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="217" priority="241" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",A12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="242" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",A12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="243" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",A12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="244" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C10">
-    <cfRule type="containsText" dxfId="181" priority="199" operator="containsText" text="letzter Screen">
+    <cfRule type="containsText" dxfId="61" priority="200" operator="containsText" text="weiter mit Screen">
+      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="199" operator="containsText" text="letzter Screen">
       <formula>NOT(ISERROR(SEARCH("letzter Screen",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="200" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",C2)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="179" priority="195" operator="containsText" text="Zeit max">
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="containsText" dxfId="59" priority="168" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="167" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="166" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="165" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="196" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="197" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="198" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",E2)))</formula>
+    <cfRule type="containsText" dxfId="55" priority="164" operator="containsText" text="weiter mit Screen">
+      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="163" operator="containsText" text="letzter Screen">
+      <formula>NOT(ISERROR(SEARCH("letzter Screen",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="175" priority="193" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="194" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",E2)))</formula>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="containsText" dxfId="53" priority="126" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="125" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="124" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="123" operator="containsText" text="Zeit max">
+      <formula>NOT(ISERROR(SEARCH("Zeit max",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="122" operator="containsText" text="weiter mit Screen">
+      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="121" operator="containsText" text="letzter Screen">
+      <formula>NOT(ISERROR(SEARCH("letzter Screen",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="173" priority="189" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="190" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="191" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="192" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",E3)))</formula>
+  <conditionalFormatting sqref="I2:I7">
+    <cfRule type="containsText" dxfId="47" priority="114" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="113" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="112" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="111" operator="containsText" text="Zeit max">
+      <formula>NOT(ISERROR(SEARCH("Zeit max",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="110" operator="containsText" text="weiter mit Screen">
+      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="109" operator="containsText" text="letzter Screen">
+      <formula>NOT(ISERROR(SEARCH("letzter Screen",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="169" priority="187" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="188" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",E3)))</formula>
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="containsText" dxfId="41" priority="102" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="101" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="100" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="99" operator="containsText" text="Zeit max">
+      <formula>NOT(ISERROR(SEARCH("Zeit max",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="98" operator="containsText" text="weiter mit Screen">
+      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="97" operator="containsText" text="letzter Screen">
+      <formula>NOT(ISERROR(SEARCH("letzter Screen",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="167" priority="183" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="184" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="185" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="186" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",E4)))</formula>
+  <conditionalFormatting sqref="M2:M4">
+    <cfRule type="containsText" dxfId="35" priority="77" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="78" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="76" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="75" operator="containsText" text="Zeit max">
+      <formula>NOT(ISERROR(SEARCH("Zeit max",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="74" operator="containsText" text="weiter mit Screen">
+      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="73" operator="containsText" text="letzter Screen">
+      <formula>NOT(ISERROR(SEARCH("letzter Screen",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="163" priority="181" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="182" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",E4)))</formula>
+  <conditionalFormatting sqref="O2:O5">
+    <cfRule type="containsText" dxfId="29" priority="66" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="65" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="64" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="63" operator="containsText" text="Zeit max">
+      <formula>NOT(ISERROR(SEARCH("Zeit max",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="62" operator="containsText" text="weiter mit Screen">
+      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="61" operator="containsText" text="letzter Screen">
+      <formula>NOT(ISERROR(SEARCH("letzter Screen",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="161" priority="177" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="178" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="179" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="180" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",E5)))</formula>
+  <conditionalFormatting sqref="Q2:Q5">
+    <cfRule type="containsText" dxfId="23" priority="42" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="40" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="Zeit max">
+      <formula>NOT(ISERROR(SEARCH("Zeit max",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="38" operator="containsText" text="weiter mit Screen">
+      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="letzter Screen">
+      <formula>NOT(ISERROR(SEARCH("letzter Screen",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="157" priority="175" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="176" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",E5)))</formula>
+  <conditionalFormatting sqref="S2:S4">
+    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="28" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="Zeit max">
+      <formula>NOT(ISERROR(SEARCH("Zeit max",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="26" operator="containsText" text="weiter mit Screen">
+      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="letzter Screen">
+      <formula>NOT(ISERROR(SEARCH("letzter Screen",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="155" priority="171" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",E6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="172" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",E6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="173" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",E6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="174" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",E6)))</formula>
+  <conditionalFormatting sqref="U2:U4">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="Zeit max">
+      <formula>NOT(ISERROR(SEARCH("Zeit max",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="weiter mit Screen">
+      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",U2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="letzter Screen">
+      <formula>NOT(ISERROR(SEARCH("letzter Screen",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="151" priority="169" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",E6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="170" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",E6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="149" priority="165" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",E7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="166" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",E7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="167" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",E7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="168" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",E7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="145" priority="163" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",E7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="164" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",E7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="143" priority="141" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="142" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="143" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="144" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="139" priority="139" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="140" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="137" priority="135" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",G3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="136" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",G3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="137" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",G3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="138" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",G3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="133" priority="133" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",G3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="134" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",G3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="131" priority="129" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",G4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="130" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",G4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",G4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="132" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",G4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="127" priority="127" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",G4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="128" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",G4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="125" priority="123" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="124" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="125" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="126" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",G5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="121" priority="121" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="122" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",G5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="119" priority="117" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="120" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",I2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="115" priority="115" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="116" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",I2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I7">
-    <cfRule type="containsText" dxfId="113" priority="111" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",I3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",I3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",I3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="114" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",I3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I7">
-    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",I3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",I3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="103" priority="103" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="104" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K4">
-    <cfRule type="containsText" dxfId="101" priority="99" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",K3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",K3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",K3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",K3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K4">
-    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",K3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",K3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",M2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",M2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",M2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",M2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",M2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",M2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M4">
-    <cfRule type="containsText" dxfId="77" priority="75" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",M3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",M3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",M3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",M3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M4">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",M3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",M3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",O2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",O2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",O2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",O2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",O2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",O2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O5">
-    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",O3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",O3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",O3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",O3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O5">
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",O3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",O3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",Q2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",Q2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",Q2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",Q3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",Q3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",Q3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",Q3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",Q3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",Q3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",Q4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",Q4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",Q4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",Q4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",Q4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",Q4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",Q5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",Q5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",Q5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",Q5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",Q5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",Q5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",S2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",S2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S4">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",S3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",S3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",S3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",S3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S4">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",S3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",S3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",U2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",U2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",U2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",U2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",U2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",U2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U4">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",U3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",U3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",U3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",U3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U4">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",U3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",U3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Zeit max">
+  <conditionalFormatting sqref="W2:W4">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Neue Etappe">
+      <formula>NOT(ISERROR(SEARCH("Neue Etappe",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Etappen-Titel">
+      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Zeit min">
+      <formula>NOT(ISERROR(SEARCH("Zeit min",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",W2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",W2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",W2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="letzter Screen">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="weiter mit Screen">
+      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="letzter Screen">
       <formula>NOT(ISERROR(SEARCH("letzter Screen",W2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",W2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W4">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",W3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",W3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",W3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",W3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W4">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="letzter Screen">
-      <formula>NOT(ISERROR(SEARCH("letzter Screen",W3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="weiter mit Screen">
-      <formula>NOT(ISERROR(SEARCH("weiter mit Screen",W3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4037,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2357A5-20B8-E04D-B005-78DA48C95BE8}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
